--- a/FinancialPlanningBE/Test/UnitTesting/File/HR_Q1_2024_Plan.xlsx
+++ b/FinancialPlanningBE/Test/UnitTesting/File/HR_Q1_2024_Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Csharp\FinancialPlanning\financial-planning\FinancialPlanningBE\Test\UnitTesting\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C6CBC4F-168F-4889-B2EE-22A9D442D9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD986868-46A9-40B1-9F57-2233FE369358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1440" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expense plan" sheetId="2" r:id="rId1"/>
@@ -19,26 +19,17 @@
     <sheet name="Evaluation Warning" sheetId="4" r:id="rId4"/>
     <sheet name="Evaluation Warning (1)" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t>Format DD/MM/YYYY</t>
   </si>
@@ -197,6 +188,9 @@
   </si>
   <si>
     <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2024 Aspose Pty Ltd.</t>
+  </si>
+  <si>
+    <t>Modified</t>
   </si>
 </sst>
 </file>
@@ -643,7 +637,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -754,7 +748,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>24</v>
